--- a/Data/Processed/Angiosperms/missing_powo_ipni/Loganiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Loganiaceae.xlsx
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 34, pl. 3, fig. B. 1891 </t>
+          <t>Vellosia ed. 2, 1: 34, pl. 3, fig. B. 1891</t>
         </is>
       </c>
       <c r="J138" t="b">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 37, pl. 3, fig. A. 1891 </t>
+          <t>Vellosia ed. 2, 1: 37, pl. 3, fig. A. 1891</t>
         </is>
       </c>
       <c r="J139" t="b">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 37. 1891 </t>
+          <t>Vellosia ed. 2, 1: 37. 1891</t>
         </is>
       </c>
       <c r="J140" t="b">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 38. 1891 </t>
+          <t>Vellosia ed. 2, 1: 38. 1891</t>
         </is>
       </c>
       <c r="J141" t="b">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 36, pl. 5. 1891 </t>
+          <t>Vellosia ed. 2, 1: 36, pl. 5. 1891</t>
         </is>
       </c>
       <c r="J142" t="b">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 35, pl. fig. B, &amp; 4, fig. C. 1891 </t>
+          <t>Vellosia ed. 2, 1: 35, pl. fig. B, &amp; 4, fig. C. 1891</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 38. 1891 </t>
+          <t>Vellosia ed. 2, 1: 38. 1891</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia ed. 2, 1: 38, pl. 4, fig. A. 1891 </t>
+          <t>Vellosia ed. 2, 1: 38, pl. 4, fig. A. 1891</t>
         </is>
       </c>
       <c r="J146" t="b">
